--- a/public/Summary_Caltrans.xlsx
+++ b/public/Summary_Caltrans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Midas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70AAB9B2-DA9A-4158-81D9-010DBCADB6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8F18E-42A9-4E60-AEF9-AA1F3380808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C4526B9-0C05-4B4D-A4B8-1D67186E109B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C4526B9-0C05-4B4D-A4B8-1D67186E109B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,17 +287,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,18 +299,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,90 +656,91 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
         <v>0.95</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>104406.1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -749,50 +749,50 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2">
         <v>0.95</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>104406.1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -801,128 +801,128 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>1.8</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
         <v>2.5</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>216.18</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -931,124 +931,113 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A21:E21"/>
+  <mergeCells count="1">
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/Summary_Caltrans.xlsx
+++ b/public/Summary_Caltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8F18E-42A9-4E60-AEF9-AA1F3380808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E034B9B3-F794-4124-9203-4521A0A2E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C4526B9-0C05-4B4D-A4B8-1D67186E109B}"/>
   </bookViews>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Element </t>
-  </si>
-  <si>
-    <t>81_I</t>
-  </si>
-  <si>
-    <t>AASHTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caltrans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Factored Resistance: Positive </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>ϕ</t>
   </si>
@@ -59,60 +44,13 @@
     <t>Mu</t>
   </si>
   <si>
-    <t xml:space="preserve">Value </t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NG</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Factored Resistance: Negative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Maximum spacing for transverse reinforcement: Maximum shear case </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smax </t>
   </si>
   <si>
     <t xml:space="preserve">S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Maximum spacing for transverse reinforcement: Minimum shear case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Crack Check </t>
   </si>
   <si>
     <r>
@@ -146,16 +84,10 @@
     <t>s</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Beta and Theta </t>
-  </si>
-  <si>
     <t>β</t>
   </si>
   <si>
     <t>θ</t>
-  </si>
-  <si>
-    <t>7. Component of shear resisted by the transverse reinforcement</t>
   </si>
   <si>
     <r>
@@ -186,9 +118,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8. Shear Resistance </t>
-  </si>
-  <si>
     <t>Vu</t>
   </si>
   <si>
@@ -199,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,25 +140,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -255,12 +165,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -272,12 +182,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -287,38 +262,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,392 +646,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E565200-5FC8-434A-BA4A-2DDE2063FE60}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>104406.1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>104406.1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>216.18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A24:E24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>